--- a/config_12.29/vip2_config.xlsx
+++ b/config_12.29/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="393">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1517,6 +1517,30 @@
   </si>
   <si>
     <t>line</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"VIP11礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥11&lt;/color&gt;)",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"VIP12礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥12&lt;/color&gt;)",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_998y","zpg_icon_shui","com_award_icon_cz1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_2498y","zpg_icon_shui","com_award_icon_cz1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9888万","40","40",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"8888万","30","30",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2950,10 +2974,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2962,7 +2986,7 @@
     <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3197,6 +3221,46 @@
       </c>
       <c r="G11" s="24" t="s">
         <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>10411</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="E12">
+        <v>798</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>10412</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="E13">
+        <v>898</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -3209,7 +3273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>

--- a/config_12.29/vip2_config.xlsx
+++ b/config_12.29/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="394">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1542,6 +1542,10 @@
   <si>
     <t>"8888万","30","30",</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cfz|财富值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2055,10 +2059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2066,11 +2070,12 @@
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="90.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="11.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
@@ -2086,14 +2091,17 @@
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2106,9 +2114,10 @@
       <c r="E2" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="15"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2121,9 +2130,10 @@
       <c r="E3" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="16"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2136,9 +2146,10 @@
       <c r="E4" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="16"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2154,9 +2165,10 @@
       <c r="E5" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="F5" s="27"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2172,9 +2184,10 @@
       <c r="E6" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="15"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2187,9 +2200,10 @@
       <c r="E7" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="15"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2202,9 +2216,10 @@
       <c r="E8" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="16"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2220,9 +2235,10 @@
       <c r="E9" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="F9" s="27"/>
-    </row>
-    <row r="10" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2238,9 +2254,10 @@
       <c r="E10" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="15"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2256,9 +2273,10 @@
       <c r="E11" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="15"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2271,8 +2289,9 @@
       <c r="E12" s="15" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2285,8 +2304,9 @@
       <c r="E13" s="16" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2302,9 +2322,10 @@
       <c r="E14" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="F14" s="27"/>
-    </row>
-    <row r="15" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2320,9 +2341,10 @@
       <c r="E15" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="F15" s="21"/>
-    </row>
-    <row r="16" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="15"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2335,8 +2357,9 @@
       <c r="E16" s="15" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2349,8 +2372,9 @@
       <c r="E17" s="16" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2366,9 +2390,10 @@
       <c r="E18" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="F18" s="27"/>
-    </row>
-    <row r="19" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2384,9 +2409,10 @@
       <c r="E19" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="15"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2402,9 +2428,10 @@
       <c r="E20" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="15"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2417,9 +2444,10 @@
       <c r="E21" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F21" s="22"/>
-    </row>
-    <row r="22" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="15"/>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2432,9 +2460,10 @@
       <c r="E22" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="16"/>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2447,9 +2476,10 @@
       <c r="E23" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="16"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2465,9 +2495,10 @@
       <c r="E24" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="F24" s="27"/>
-    </row>
-    <row r="25" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2483,9 +2514,10 @@
       <c r="E25" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="15"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2498,8 +2530,9 @@
       <c r="E26" s="15" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2512,9 +2545,10 @@
       <c r="E27" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="16"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2530,9 +2564,10 @@
       <c r="E28" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="F28" s="27"/>
-    </row>
-    <row r="29" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="26"/>
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2548,9 +2583,10 @@
       <c r="E29" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="15"/>
+      <c r="G29" s="21"/>
+    </row>
+    <row r="30" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2563,9 +2599,10 @@
       <c r="E30" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="F30" s="22"/>
-    </row>
-    <row r="31" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="15"/>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2578,9 +2615,10 @@
       <c r="E31" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="F31" s="21"/>
-    </row>
-    <row r="32" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="16"/>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2596,9 +2634,10 @@
       <c r="E32" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="F32" s="27"/>
-    </row>
-    <row r="33" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="26"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2614,9 +2653,10 @@
       <c r="E33" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="15"/>
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2629,9 +2669,10 @@
       <c r="E34" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="F34" s="22"/>
-    </row>
-    <row r="35" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="15"/>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2644,9 +2685,10 @@
       <c r="E35" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="16"/>
+      <c r="G35" s="21"/>
+    </row>
+    <row r="36" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2662,9 +2704,10 @@
       <c r="E36" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="F36" s="27"/>
-    </row>
-    <row r="37" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="26"/>
+      <c r="G36" s="27"/>
+    </row>
+    <row r="37" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2680,9 +2723,10 @@
       <c r="E37" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="23"/>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2695,9 +2739,10 @@
       <c r="E38" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="F38" s="22"/>
-    </row>
-    <row r="39" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="23"/>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2710,9 +2755,10 @@
       <c r="E39" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="20"/>
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2728,9 +2774,10 @@
       <c r="E40" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="F40" s="27"/>
-    </row>
-    <row r="41" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="26"/>
+      <c r="G40" s="27"/>
+    </row>
+    <row r="41" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2746,9 +2793,10 @@
       <c r="E41" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F41" s="23"/>
+      <c r="G41" s="21"/>
+    </row>
+    <row r="42" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2761,9 +2809,10 @@
       <c r="E42" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="F42" s="22"/>
-    </row>
-    <row r="43" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F42" s="23"/>
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2776,9 +2825,10 @@
       <c r="E43" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F43" s="20"/>
+      <c r="G43" s="21"/>
+    </row>
+    <row r="44" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2794,9 +2844,10 @@
       <c r="E44" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="F44" s="27"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F44" s="26"/>
+      <c r="G44" s="27"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2809,8 +2860,11 @@
       <c r="E45" s="12" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F45" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2823,8 +2877,11 @@
       <c r="E46" s="12" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F46" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2837,8 +2894,11 @@
       <c r="E47" s="12" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F47" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2851,8 +2911,11 @@
       <c r="E48" s="12" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2865,8 +2928,11 @@
       <c r="E49" s="12" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2879,8 +2945,11 @@
       <c r="E50" s="12" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2893,8 +2962,11 @@
       <c r="E51" s="12" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2907,8 +2979,11 @@
       <c r="E52" s="12" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2921,8 +2996,11 @@
       <c r="E53" s="12" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2935,8 +3013,11 @@
       <c r="E54" s="12" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2949,8 +3030,11 @@
       <c r="E55" s="12" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2962,6 +3046,9 @@
       </c>
       <c r="E56" s="12" t="s">
         <v>383</v>
+      </c>
+      <c r="F56" s="1">
+        <v>40000</v>
       </c>
     </row>
   </sheetData>
@@ -2976,8 +3063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_12.29/vip2_config.xlsx
+++ b/config_12.29/vip2_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="320">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -292,14 +292,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>vip&lt;color=#e41a1a&gt;6&lt;/color&gt;及以上福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip&lt;color=#e41a1a&gt;3&lt;/color&gt;-vip&lt;color=#e41a1a&gt;5&lt;/color&gt;福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>title|抬头</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -570,10 +562,6 @@
   </si>
   <si>
     <t>activity_icon_gift162_kt</t>
-  </si>
-  <si>
-    <t>vip&lt;color=#e41a1a&gt;2&lt;/color&gt;福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -994,256 +982,279 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"com_award_icon_yb1","zpg_icon_yg","3dby_btn_zh"</t>
+    <t>condition|进度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_progress_lv|奖励阶段等级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fhfl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>富豪福利</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>享受vip专享福利</t>
+  </si>
+  <si>
+    <t>享受vip1所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip2所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip3所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>畅玩所有游戏</t>
+  </si>
+  <si>
+    <t>享受vip4所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip5所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip6所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip7所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip8所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip9所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;5000福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;5次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;10次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;20次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;30次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;50次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>享受兑换商城商品&lt;color=#DA2020&gt;99%&lt;/color&gt;兑换权</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;4万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;10万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;15万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;30万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;50万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;100万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;200万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;300万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;500万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛4次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛5次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛6次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛7次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛9次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛10次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛11次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛12次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛15次</t>
+  </si>
+  <si>
+    <t>key|权限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛8次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_notcps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可获得&lt;color=#DA2020&gt;闪耀风暴&lt;/color&gt;炮台，有几率捕获激光范围内的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可获得&lt;color=#DA2020&gt;金币使者&lt;/color&gt;炮台，可捕获同移动线上的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_48y","zpg_icon_shui","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","zpg_icon_shui","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","zpg_icon_shui","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","zpg_icon_shui","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"75万","1","1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7688万","20","20",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6488万","10","10",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5488万","8","8",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4388万","7","7",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3288万","6","6",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2218万","5","5",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1108万","4","4",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"538万","3","3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"318万","2","2",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_vip_desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_vip_desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_vip_desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_vip_desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万鱼币","太阳*6","狂暴卡*10"</t>
+  </si>
+  <si>
+    <t>vip&lt;color=#e41a1a&gt;6，7&lt;/color&gt;福利</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>"com_award_icon_yb1","zpg_icon_yg","3dby_btn_zh"</t>
+    <t>vip&lt;color=#e41a1a&gt;3&lt;/color&gt;-vip&lt;color=#e41a1a&gt;5&lt;/color&gt;福利</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>"10万鱼币","太阳*2","召唤*10"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"30万鱼币","太阳*6","召唤*10"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"66万鱼币","太阳*10","召唤*10"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition|进度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>award_progress_lv|奖励阶段等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>fhfl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>富豪福利</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>享受vip专享福利</t>
-  </si>
-  <si>
-    <t>享受vip1所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>享受vip2所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>享受vip3所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>畅玩所有游戏</t>
-  </si>
-  <si>
-    <t>享受vip4所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>享受vip5所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>享受vip6所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>享受vip7所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>享受vip8所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>享受vip9所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;5000福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;5次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;10次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;20次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;30次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;50次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>享受兑换商城商品&lt;color=#DA2020&gt;99%&lt;/color&gt;兑换权</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;4万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;10万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;15万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;30万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;50万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;100万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;200万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;300万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;500万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛4次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛5次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛6次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛7次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛9次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛10次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛11次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛12次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛15次</t>
-  </si>
-  <si>
-    <t>key|权限</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛8次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip_notcps</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可获得&lt;color=#DA2020&gt;闪耀风暴&lt;/color&gt;炮台，有几率捕获激光范围内的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可获得&lt;color=#DA2020&gt;金币使者&lt;/color&gt;炮台，可捕获同移动线上的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_48y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"75万","1","1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"7688万","20","20",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"6488万","10","10",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5488万","8","8",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4388万","7","7",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3288万","6","6",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2218万","5","5",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1108万","4","4",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"538万","3","3",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"318万","2","2",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_vip_desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_vip_desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_vip_desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_vip_desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>vip&lt;color=#e41a1a&gt;2&lt;/color&gt;福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip&lt;color=#e41a1a&gt;8&lt;/color&gt;及以上福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"com_award_icon_yb1","zpg_icon_yg","3dby_btn_kb"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"com_award_icon_yb1","zpg_icon_yg","3dby_btn_kb"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"com_award_icon_yb1","zpg_icon_yg","3dby_btn_kb"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万鱼币","太阳*2","狂暴卡*5"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"66万鱼币","太阳*10","狂暴卡*15"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"66万鱼币","太阳*15","狂暴卡*20"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1759,7 +1770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F43" sqref="F6:F43"/>
     </sheetView>
   </sheetViews>
@@ -1774,25 +1785,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1806,7 +1817,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F2" s="5"/>
     </row>
@@ -1821,7 +1832,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F3" s="13"/>
     </row>
@@ -1836,7 +1847,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -1851,10 +1862,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F5" s="27"/>
     </row>
@@ -1869,10 +1880,10 @@
         <v>200</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -1887,7 +1898,7 @@
         <v>200</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F7" s="14"/>
     </row>
@@ -1902,7 +1913,7 @@
         <v>200</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -1917,10 +1928,10 @@
         <v>200</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F9" s="27"/>
     </row>
@@ -1935,10 +1946,10 @@
         <v>500</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F10" s="21"/>
     </row>
@@ -1953,10 +1964,10 @@
         <v>500</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F11" s="21"/>
     </row>
@@ -1971,7 +1982,7 @@
         <v>500</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1985,7 +1996,7 @@
         <v>500</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1999,10 +2010,10 @@
         <v>500</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F14" s="27"/>
     </row>
@@ -2017,10 +2028,10 @@
         <v>1000</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F15" s="21"/>
     </row>
@@ -2035,7 +2046,7 @@
         <v>1000</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2049,7 +2060,7 @@
         <v>1000</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2063,10 +2074,10 @@
         <v>1000</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F18" s="27"/>
     </row>
@@ -2081,10 +2092,10 @@
         <v>2000</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F19" s="21"/>
     </row>
@@ -2099,10 +2110,10 @@
         <v>2000</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F20" s="21"/>
     </row>
@@ -2117,7 +2128,7 @@
         <v>2000</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F21" s="22"/>
     </row>
@@ -2132,7 +2143,7 @@
         <v>2000</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F22" s="21"/>
     </row>
@@ -2147,7 +2158,7 @@
         <v>2000</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F23" s="21"/>
     </row>
@@ -2162,10 +2173,10 @@
         <v>2000</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F24" s="27"/>
     </row>
@@ -2180,10 +2191,10 @@
         <v>5000</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F25" s="21"/>
     </row>
@@ -2198,7 +2209,7 @@
         <v>5000</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2212,7 +2223,7 @@
         <v>5000</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F27" s="21"/>
     </row>
@@ -2227,10 +2238,10 @@
         <v>5000</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F28" s="27"/>
     </row>
@@ -2245,10 +2256,10 @@
         <v>10000</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F29" s="21"/>
     </row>
@@ -2263,7 +2274,7 @@
         <v>10000</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F30" s="22"/>
     </row>
@@ -2278,7 +2289,7 @@
         <v>10000</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F31" s="21"/>
     </row>
@@ -2293,10 +2304,10 @@
         <v>10000</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F32" s="27"/>
     </row>
@@ -2311,10 +2322,10 @@
         <v>20000</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F33" s="21"/>
     </row>
@@ -2329,7 +2340,7 @@
         <v>20000</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F34" s="22"/>
     </row>
@@ -2344,7 +2355,7 @@
         <v>20000</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F35" s="21"/>
     </row>
@@ -2359,10 +2370,10 @@
         <v>20000</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F36" s="27"/>
     </row>
@@ -2377,10 +2388,10 @@
         <v>30000</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F37" s="21"/>
     </row>
@@ -2395,7 +2406,7 @@
         <v>30000</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F38" s="22"/>
     </row>
@@ -2410,7 +2421,7 @@
         <v>30000</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F39" s="21"/>
     </row>
@@ -2425,10 +2436,10 @@
         <v>30000</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F40" s="27"/>
     </row>
@@ -2443,10 +2454,10 @@
         <v>50000</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F41" s="21"/>
     </row>
@@ -2461,7 +2472,7 @@
         <v>50000</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F42" s="22"/>
     </row>
@@ -2476,7 +2487,7 @@
         <v>50000</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F43" s="21"/>
     </row>
@@ -2491,10 +2502,10 @@
         <v>50000</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F44" s="27"/>
     </row>
@@ -2541,22 +2552,22 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2567,17 +2578,17 @@
         <v>10244</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2588,17 +2599,17 @@
         <v>10245</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3">
         <v>28</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2609,17 +2620,17 @@
         <v>10246</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4">
         <v>48</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2630,17 +2641,17 @@
         <v>10247</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5">
         <v>99</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2651,17 +2662,17 @@
         <v>10248</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6">
         <v>198</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2672,17 +2683,17 @@
         <v>10249</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7">
         <v>298</v>
       </c>
       <c r="F7" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>300</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2693,17 +2704,17 @@
         <v>10250</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8">
         <v>398</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2714,17 +2725,17 @@
         <v>10251</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9">
         <v>498</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2735,17 +2746,17 @@
         <v>10252</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10">
         <v>598</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2756,17 +2767,17 @@
         <v>10253</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11">
         <v>698</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2797,22 +2808,22 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>207</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2823,16 +2834,16 @@
         <v>21341</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D2" s="17">
         <v>2000000</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2846,16 +2857,16 @@
         <v>21341</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D3" s="17">
         <v>5000000</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2869,16 +2880,16 @@
         <v>21341</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D4" s="17">
         <v>10000000</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -2892,16 +2903,16 @@
         <v>21341</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D5" s="17">
         <v>20000000</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2915,16 +2926,16 @@
         <v>21341</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D6" s="17">
         <v>50000000</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -2938,16 +2949,16 @@
         <v>21341</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D7" s="17">
         <v>100000000</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -2961,16 +2972,16 @@
         <v>21341</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D8" s="17">
         <v>200000000</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -2984,16 +2995,16 @@
         <v>21341</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D9" s="17">
         <v>500000000</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -3007,16 +3018,16 @@
         <v>21341</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D10" s="17">
         <v>1000000000</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -3030,16 +3041,16 @@
         <v>21341</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D11" s="17">
         <v>2000000000</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -3053,16 +3064,16 @@
         <v>21341</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D12" s="17">
         <v>3000000000</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -3076,16 +3087,16 @@
         <v>21341</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D13" s="17">
         <v>5000000000</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -3101,8 +3112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3114,16 +3125,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3131,13 +3142,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>244</v>
+        <v>314</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>246</v>
+        <v>317</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>136</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3145,13 +3156,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>244</v>
+        <v>315</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>247</v>
+        <v>309</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>65</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3159,20 +3170,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>245</v>
+        <v>315</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>248</v>
+        <v>318</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>64</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
@@ -3287,7 +3306,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3410,10 +3429,10 @@
         <v>21016</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3424,10 +3443,10 @@
         <v>21017</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3438,10 +3457,10 @@
         <v>21243</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3452,10 +3471,10 @@
         <v>21244</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3466,10 +3485,10 @@
         <v>21248</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3480,10 +3499,10 @@
         <v>21249</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3494,10 +3513,10 @@
         <v>21250</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3508,10 +3527,10 @@
         <v>21251</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3522,10 +3541,10 @@
         <v>21314</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3536,10 +3555,10 @@
         <v>21340</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3550,10 +3569,10 @@
         <v>21341</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3733,7 +3752,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3759,10 +3778,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3770,10 +3789,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3781,10 +3800,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3792,10 +3811,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3803,10 +3822,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3814,10 +3833,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3825,10 +3844,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3836,10 +3855,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3847,10 +3866,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3858,10 +3877,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3869,10 +3888,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3880,10 +3899,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3967,7 +3986,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" s="8">
         <v>5000000</v>
@@ -3984,7 +4003,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>26</v>
@@ -4001,7 +4020,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>47</v>
@@ -4018,7 +4037,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7" s="8">
         <v>50000000</v>
@@ -4035,7 +4054,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8" s="8">
         <v>100000000</v>
@@ -4052,7 +4071,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>46</v>
@@ -4069,7 +4088,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>45</v>
@@ -4086,7 +4105,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="8">
         <v>1000000000</v>
@@ -4103,7 +4122,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" s="8">
         <v>2000000000</v>
@@ -4137,7 +4156,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" s="8">
         <v>10000000000</v>
@@ -4217,13 +4236,13 @@
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4237,7 +4256,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4251,10 +4270,10 @@
         <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4268,10 +4287,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4285,10 +4304,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4302,10 +4321,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4319,10 +4338,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4336,10 +4355,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4353,10 +4372,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4370,10 +4389,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4384,13 +4403,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4401,13 +4420,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4418,13 +4437,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4435,13 +4454,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4452,10 +4471,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D15" s="8">
         <v>20000000000</v>
@@ -4469,10 +4488,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D16" s="8">
         <v>50000000000</v>
@@ -4481,7 +4500,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
@@ -4498,7 +4517,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4527,7 +4546,7 @@
         <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4538,10 +4557,10 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4555,10 +4574,10 @@
         <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4572,10 +4591,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4589,10 +4608,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4606,10 +4625,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4623,10 +4642,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4640,7 +4659,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>46</v>
@@ -4657,10 +4676,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4674,10 +4693,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4688,13 +4707,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4705,13 +4724,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4722,13 +4741,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4739,13 +4758,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4756,13 +4775,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4773,10 +4792,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D16" s="8">
         <v>50000000000</v>
@@ -4785,7 +4804,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">

--- a/config_12.29/vip2_config.xlsx
+++ b/config_12.29/vip2_config.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="328">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1254,6 +1254,50 @@
   </si>
   <si>
     <t>"66万鱼币","太阳*15","狂暴卡*20"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>task_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0B0B"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>|任务id</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips|点击图标描述</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","可以再小游戏苹果大战中使用","在3D捕鱼中提高子弹威力",</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc|</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为VIP2即可领取更丰厚的每周福利!</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为VIP8即可领取更丰厚的每周福利!</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为VIP6即可领取更丰厚的每周福利!</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为VIP3即可领取更丰厚的每周福利!</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3110,127 +3154,181 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="68.375" customWidth="1"/>
-    <col min="3" max="3" width="94.5" customWidth="1"/>
-    <col min="4" max="4" width="71" customWidth="1"/>
+    <col min="3" max="3" width="47.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F1" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1">
+        <v>21314</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F2" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1">
+        <v>21016</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1">
+        <v>21017</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1">
+        <v>1000152</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F5" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="5"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="5"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="5"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="5"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="5"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="5"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/config_12.29/vip2_config.xlsx
+++ b/config_12.29/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="343">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -140,10 +140,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>10000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>com_icon_gold</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -156,18 +152,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>bbsc_icon_hb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbsc_icon_hb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbsc_icon_hb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>vip_zx_icon_1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -192,39 +176,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3000鲸币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>5000鲸币</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>黄金转运珠</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>华为P30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>苹果笔记本电脑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>need|需求量</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>500000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>200000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000000</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -308,14 +268,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>四件套</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>电饭煲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>vip每周任务奖励1</t>
   </si>
   <si>
@@ -336,34 +288,6 @@
   <si>
     <t>gotoUI|跳转</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3红包券</t>
-  </si>
-  <si>
-    <t>5红包券</t>
-  </si>
-  <si>
-    <t>20红包券</t>
-  </si>
-  <si>
-    <t>50红包券</t>
-  </si>
-  <si>
-    <t>0.5红包劵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1红包劵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10红包劵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>华为荣耀平板</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>vip|Vip等级</t>
@@ -1299,6 +1223,131 @@
   <si>
     <t>成为VIP3即可领取更丰厚的每周福利!</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3万金币</t>
+  </si>
+  <si>
+    <t>5万金币</t>
+  </si>
+  <si>
+    <t>50福利券</t>
+  </si>
+  <si>
+    <t>100福利券</t>
+  </si>
+  <si>
+    <t>300福利券</t>
+  </si>
+  <si>
+    <t>500福利券</t>
+  </si>
+  <si>
+    <t>1000福利券</t>
+  </si>
+  <si>
+    <t>2000福利券</t>
+  </si>
+  <si>
+    <t>5000福利券</t>
+  </si>
+  <si>
+    <t>四件套</t>
+  </si>
+  <si>
+    <t>电饭煲</t>
+  </si>
+  <si>
+    <t>黄金幸运珠</t>
+  </si>
+  <si>
+    <t>华为荣耀平板</t>
+  </si>
+  <si>
+    <t>vivo  X50</t>
+  </si>
+  <si>
+    <t>苹果笔记本</t>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_6y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_15y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1829,25 +1878,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1861,7 +1910,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F2" s="5"/>
     </row>
@@ -1876,7 +1925,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="F3" s="13"/>
     </row>
@@ -1891,7 +1940,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -1906,10 +1955,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="F5" s="27"/>
     </row>
@@ -1924,10 +1973,10 @@
         <v>200</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -1942,7 +1991,7 @@
         <v>200</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="F7" s="14"/>
     </row>
@@ -1957,7 +2006,7 @@
         <v>200</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -1972,10 +2021,10 @@
         <v>200</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="F9" s="27"/>
     </row>
@@ -1990,10 +2039,10 @@
         <v>500</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="F10" s="21"/>
     </row>
@@ -2008,10 +2057,10 @@
         <v>500</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="F11" s="21"/>
     </row>
@@ -2026,7 +2075,7 @@
         <v>500</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2040,7 +2089,7 @@
         <v>500</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2054,10 +2103,10 @@
         <v>500</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="F14" s="27"/>
     </row>
@@ -2072,10 +2121,10 @@
         <v>1000</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="F15" s="21"/>
     </row>
@@ -2090,7 +2139,7 @@
         <v>1000</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2104,7 +2153,7 @@
         <v>1000</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2118,10 +2167,10 @@
         <v>1000</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="F18" s="27"/>
     </row>
@@ -2136,10 +2185,10 @@
         <v>2000</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="F19" s="21"/>
     </row>
@@ -2154,10 +2203,10 @@
         <v>2000</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="F20" s="21"/>
     </row>
@@ -2172,7 +2221,7 @@
         <v>2000</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="F21" s="22"/>
     </row>
@@ -2187,7 +2236,7 @@
         <v>2000</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="F22" s="21"/>
     </row>
@@ -2202,7 +2251,7 @@
         <v>2000</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="F23" s="21"/>
     </row>
@@ -2217,10 +2266,10 @@
         <v>2000</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="F24" s="27"/>
     </row>
@@ -2235,10 +2284,10 @@
         <v>5000</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="F25" s="21"/>
     </row>
@@ -2253,7 +2302,7 @@
         <v>5000</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2267,7 +2316,7 @@
         <v>5000</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="F27" s="21"/>
     </row>
@@ -2282,10 +2331,10 @@
         <v>5000</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="F28" s="27"/>
     </row>
@@ -2300,10 +2349,10 @@
         <v>10000</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="F29" s="21"/>
     </row>
@@ -2318,7 +2367,7 @@
         <v>10000</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="F30" s="22"/>
     </row>
@@ -2333,7 +2382,7 @@
         <v>10000</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="F31" s="21"/>
     </row>
@@ -2348,10 +2397,10 @@
         <v>10000</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="F32" s="27"/>
     </row>
@@ -2366,10 +2415,10 @@
         <v>20000</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="F33" s="21"/>
     </row>
@@ -2384,7 +2433,7 @@
         <v>20000</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="F34" s="22"/>
     </row>
@@ -2399,7 +2448,7 @@
         <v>20000</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="F35" s="21"/>
     </row>
@@ -2414,10 +2463,10 @@
         <v>20000</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="F36" s="27"/>
     </row>
@@ -2432,10 +2481,10 @@
         <v>30000</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="F37" s="21"/>
     </row>
@@ -2450,7 +2499,7 @@
         <v>30000</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="F38" s="22"/>
     </row>
@@ -2465,7 +2514,7 @@
         <v>30000</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="F39" s="21"/>
     </row>
@@ -2480,10 +2529,10 @@
         <v>30000</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="F40" s="27"/>
     </row>
@@ -2498,10 +2547,10 @@
         <v>50000</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="F41" s="21"/>
     </row>
@@ -2516,7 +2565,7 @@
         <v>50000</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="F42" s="22"/>
     </row>
@@ -2531,7 +2580,7 @@
         <v>50000</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F43" s="21"/>
     </row>
@@ -2546,10 +2595,10 @@
         <v>50000</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="F44" s="27"/>
     </row>
@@ -2596,22 +2645,22 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2622,17 +2671,17 @@
         <v>10244</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2643,17 +2692,17 @@
         <v>10245</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3">
         <v>28</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2664,17 +2713,17 @@
         <v>10246</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4">
         <v>48</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2685,17 +2734,17 @@
         <v>10247</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5">
         <v>99</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2706,17 +2755,17 @@
         <v>10248</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6">
         <v>198</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2727,17 +2776,17 @@
         <v>10249</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7">
         <v>298</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2748,17 +2797,17 @@
         <v>10250</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8">
         <v>398</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2769,17 +2818,17 @@
         <v>10251</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9">
         <v>498</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2790,17 +2839,17 @@
         <v>10252</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10">
         <v>598</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2811,17 +2860,17 @@
         <v>10253</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11">
         <v>698</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2852,22 +2901,22 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2878,16 +2927,16 @@
         <v>21341</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D2" s="17">
         <v>2000000</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2901,16 +2950,16 @@
         <v>21341</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="D3" s="17">
         <v>5000000</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2924,16 +2973,16 @@
         <v>21341</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="D4" s="17">
         <v>10000000</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -2947,16 +2996,16 @@
         <v>21341</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="D5" s="17">
         <v>20000000</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2970,16 +3019,16 @@
         <v>21341</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D6" s="17">
         <v>50000000</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -2993,16 +3042,16 @@
         <v>21341</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D7" s="17">
         <v>100000000</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -3016,16 +3065,16 @@
         <v>21341</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D8" s="17">
         <v>200000000</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -3039,16 +3088,16 @@
         <v>21341</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="D9" s="17">
         <v>500000000</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -3062,16 +3111,16 @@
         <v>21341</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="D10" s="17">
         <v>1000000000</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -3085,16 +3134,16 @@
         <v>21341</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="D11" s="17">
         <v>2000000000</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -3108,16 +3157,16 @@
         <v>21341</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="D12" s="17">
         <v>3000000000</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -3131,16 +3180,16 @@
         <v>21341</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="D13" s="17">
         <v>5000000000</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -3156,7 +3205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -3171,25 +3220,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3200,19 +3249,19 @@
         <v>21314</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3223,19 +3272,19 @@
         <v>21016</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3246,19 +3295,19 @@
         <v>21017</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3269,19 +3318,19 @@
         <v>1000152</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3404,7 +3453,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3527,10 +3576,10 @@
         <v>21016</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3541,10 +3590,10 @@
         <v>21017</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3555,10 +3604,10 @@
         <v>21243</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3569,10 +3618,10 @@
         <v>21244</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3583,10 +3632,10 @@
         <v>21248</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3597,10 +3646,10 @@
         <v>21249</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3611,10 +3660,10 @@
         <v>21250</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3625,10 +3674,10 @@
         <v>21251</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3639,10 +3688,10 @@
         <v>21314</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3653,10 +3702,10 @@
         <v>21340</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3667,10 +3716,10 @@
         <v>21341</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3715,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -3876,10 +3925,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3887,10 +3936,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3898,10 +3947,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3909,10 +3958,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3920,10 +3969,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3931,10 +3980,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3942,10 +3991,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3953,10 +4002,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3964,10 +4013,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3975,10 +4024,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3986,10 +4035,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3997,10 +4046,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4013,8 +4062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4036,7 +4085,7 @@
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>25</v>
@@ -4047,13 +4096,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>341</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1000000</v>
+        <v>322</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4064,13 +4113,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>342</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="8">
-        <v>2000000</v>
+        <v>323</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>309</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4081,13 +4130,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>340</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="8">
-        <v>5000000</v>
+        <v>324</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>310</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4098,13 +4147,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>340</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>26</v>
+        <v>311</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4115,13 +4164,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>340</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>76</v>
+        <v>326</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4132,13 +4181,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>340</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="8">
-        <v>50000000</v>
+        <v>327</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>312</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4149,13 +4198,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>339</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="8">
-        <v>100000000</v>
+        <v>328</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>313</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4166,13 +4215,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>338</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>78</v>
+        <v>329</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>46</v>
+        <v>314</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4183,13 +4232,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>337</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4200,13 +4249,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1000000000</v>
+        <v>331</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4217,13 +4266,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="8">
-        <v>2000000000</v>
+        <v>332</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4234,13 +4283,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="8">
-        <v>5000000000</v>
+        <v>333</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>318</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4251,13 +4300,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="8">
-        <v>10000000000</v>
+        <v>334</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>319</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4268,13 +4317,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="8">
-        <v>20000000000</v>
+        <v>335</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>320</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4285,13 +4334,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="8">
-        <v>50000000000</v>
+        <v>336</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>321</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -4312,7 +4361,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4334,13 +4383,13 @@
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4348,13 +4397,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4365,13 +4414,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4382,13 +4431,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4399,13 +4448,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4416,13 +4465,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4433,13 +4482,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4450,13 +4499,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4467,13 +4516,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4484,13 +4533,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4501,13 +4550,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4518,13 +4567,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4535,13 +4584,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4552,13 +4601,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4569,10 +4618,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="D15" s="8">
         <v>20000000000</v>
@@ -4586,10 +4635,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D16" s="8">
         <v>50000000000</v>
@@ -4598,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
@@ -4638,13 +4687,13 @@
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4652,13 +4701,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4669,13 +4718,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4686,13 +4735,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4703,13 +4752,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4720,13 +4769,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4737,13 +4786,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4754,13 +4803,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4771,13 +4820,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4788,13 +4837,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4805,13 +4854,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4822,13 +4871,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4839,13 +4888,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4856,13 +4905,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4873,13 +4922,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4890,10 +4939,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="D16" s="8">
         <v>50000000000</v>
@@ -4902,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
@@ -4941,7 +4990,7 @@
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E1" s="6"/>
     </row>
@@ -4950,13 +4999,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4964,13 +5013,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4978,13 +5027,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4992,13 +5041,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -5006,13 +5055,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -5020,13 +5069,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -5034,13 +5083,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5048,13 +5097,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/config_12.29/vip2_config.xlsx
+++ b/config_12.29/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="354">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1177,10 +1177,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>"66万鱼币","太阳*15","狂暴卡*20"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>task_id</t>
     </r>
@@ -1348,6 +1344,54 @@
   <si>
     <t>ty_icon_jb_15y</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>condi_key|推荐的条件key可以为空</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万小游戏币","太阳*2","铜锤*1"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万小游戏币","太阳*6","铜锤*2"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"66万小游戏币","太阳*10","铜锤*3"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万鱼币","太阳*15","狂暴卡*20"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万小游戏币","太阳*15","铜锤*5"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_yxb_2","zpg_icon_yg","com_award_icon_cz2"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","可以再小游戏苹果大战中使用","在冲金鸡中使用",</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3203,45 +3247,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="47.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3249,22 +3296,25 @@
         <v>21314</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>302</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3272,22 +3322,25 @@
         <v>21016</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>302</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3295,22 +3348,25 @@
         <v>21017</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>302</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3318,66 +3374,148 @@
         <v>1000152</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>302</v>
-      </c>
       <c r="G5" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1000153</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1000154</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1000155</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1000156</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -4062,7 +4200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -4096,13 +4234,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4113,13 +4251,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4130,13 +4268,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4147,13 +4285,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4164,10 +4302,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>37</v>
@@ -4181,13 +4319,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4198,13 +4336,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4215,13 +4353,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4232,13 +4370,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4252,10 +4390,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4269,10 +4407,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4286,10 +4424,10 @@
         <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4303,10 +4441,10 @@
         <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4320,10 +4458,10 @@
         <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4337,10 +4475,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E16">
         <v>1</v>

--- a/config_12.29/vip2_config.xlsx
+++ b/config_12.29/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -27,12 +27,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'dangci|档次'!$E$1:$E$48</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="373">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1392,6 +1392,75 @@
   <si>
     <t>"","可以再小游戏苹果大战中使用","在冲金鸡中使用",</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"8万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"18万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"28万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"38万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"48万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"88万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"128万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"188万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"288万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"388万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"488万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"588万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_6y","zpg_icon_shui","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_15y","zpg_icon_shui","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_18y","zpg_icon_shui","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","zpg_icon_shui","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","zpg_icon_shui","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_998y","zpg_icon_shui","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_2498y","zpg_icon_shui","com_award_icon_cz1",</t>
   </si>
 </sst>
 </file>
@@ -2925,22 +2994,22 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -2948,294 +3017,645 @@
         <v>181</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>21341</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="17">
+      <c r="E2" s="17">
         <v>2000000</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>21341</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="17">
+      <c r="E3" s="17">
         <v>5000000</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>21341</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="17">
+      <c r="E4" s="17">
         <v>10000000</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="F4" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="G4" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>21341</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="17">
+      <c r="E5" s="17">
         <v>20000000</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>21341</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="17">
+      <c r="E6" s="17">
         <v>50000000</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="G6" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>21341</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D7" s="17">
+      <c r="E7" s="17">
         <v>100000000</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="G7" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>21341</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="D8" s="17">
+      <c r="E8" s="17">
         <v>200000000</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="F8" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="G8" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>21341</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D9" s="17">
+      <c r="E9" s="17">
         <v>500000000</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="F9" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>21341</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="17">
+      <c r="E10" s="17">
         <v>1000000000</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="F10" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="G10" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>21341</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="17">
+      <c r="E11" s="17">
         <v>2000000000</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="F11" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="G11" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>21341</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="17">
+      <c r="E12" s="17">
         <v>3000000000</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="F12" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="G12" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>21341</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="D13" s="17">
+      <c r="E13" s="17">
         <v>5000000000</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="F13" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="G13" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="G13">
+      <c r="H13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1000157</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="17">
+        <v>2000000</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1000157</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="17">
+        <v>5000000</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1000157</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" s="17">
+        <v>10000000</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1000157</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="17">
+        <v>20000000</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1000157</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="17">
+        <v>50000000</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1000157</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="17">
+        <v>100000000</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1000157</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="17">
+        <v>200000000</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1000157</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="17">
+        <v>500000000</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1000157</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="17">
+        <v>1000000000</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1000157</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="17">
+        <v>2000000000</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1000157</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="17">
+        <v>3000000000</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="H24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1000157</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" s="17">
+        <v>5000000000</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="H25">
         <v>12</v>
       </c>
     </row>
@@ -3249,8 +3669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4200,8 +4620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_12.29/vip2_config.xlsx
+++ b/config_12.29/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="374">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1461,6 +1461,10 @@
   </si>
   <si>
     <t>"ty_icon_jb_2498y","zpg_icon_shui","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>vip</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2996,8 +3000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3667,22 +3671,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="54.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="65.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>57</v>
       </c>
@@ -3693,22 +3697,25 @@
         <v>342</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3718,23 +3725,26 @@
       <c r="C2" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3744,23 +3754,26 @@
       <c r="C3" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="5">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3770,23 +3783,26 @@
       <c r="C4" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="5">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3796,23 +3812,26 @@
       <c r="C5" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="5">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3822,23 +3841,26 @@
       <c r="C6" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3848,23 +3870,26 @@
       <c r="C7" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3874,23 +3899,26 @@
       <c r="C8" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="5">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3900,42 +3928,48 @@
       <c r="C9" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="5">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/config_12.29/vip2_config.xlsx
+++ b/config_12.29/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="386">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1027,9 +1027,6 @@
     <t>每日最多可参加排名挑战赛12次</t>
   </si>
   <si>
-    <t>每日最多可参加排名挑战赛15次</t>
-  </si>
-  <si>
     <t>key|权限</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1465,6 +1462,58 @@
   <si>
     <t>vip</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛30次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日可免费领取至尊礼包1个</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每领满30次至尊礼包额外奖励1000万鱼币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;70次&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>福卡容量提升为&lt;color=#C86715&gt;800万&lt;/color&gt;福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>享受vip10所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日可免费领取至尊礼包1个</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每领满30次至尊礼包额外奖励200元话费</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福卡容量提升为&lt;color=#C86715&gt;1200万&lt;/color&gt;福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>享受vip11所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛20次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛15次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1978,10 +2027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F43" sqref="F6:F43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2004,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>1</v>
@@ -2072,7 +2121,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>252</v>
@@ -2090,7 +2139,7 @@
         <v>200</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>237</v>
@@ -2138,7 +2187,7 @@
         <v>200</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>253</v>
@@ -2156,10 +2205,10 @@
         <v>500</v>
       </c>
       <c r="D10" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>268</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>269</v>
       </c>
       <c r="F10" s="21"/>
     </row>
@@ -2174,7 +2223,7 @@
         <v>500</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>238</v>
@@ -2220,7 +2269,7 @@
         <v>500</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>254</v>
@@ -2238,7 +2287,7 @@
         <v>1000</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>239</v>
@@ -2284,7 +2333,7 @@
         <v>1000</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E18" s="26" t="s">
         <v>255</v>
@@ -2302,10 +2351,10 @@
         <v>2000</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F19" s="21"/>
     </row>
@@ -2320,7 +2369,7 @@
         <v>2000</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>240</v>
@@ -2383,10 +2432,10 @@
         <v>2000</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F24" s="27"/>
     </row>
@@ -2401,7 +2450,7 @@
         <v>5000</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>241</v>
@@ -2448,7 +2497,7 @@
         <v>5000</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E28" s="26" t="s">
         <v>256</v>
@@ -2466,7 +2515,7 @@
         <v>10000</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>241</v>
@@ -2514,7 +2563,7 @@
         <v>10000</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E32" s="26" t="s">
         <v>257</v>
@@ -2532,7 +2581,7 @@
         <v>20000</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>241</v>
@@ -2580,7 +2629,7 @@
         <v>20000</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E36" s="26" t="s">
         <v>258</v>
@@ -2598,7 +2647,7 @@
         <v>30000</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>241</v>
@@ -2646,7 +2695,7 @@
         <v>30000</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>259</v>
@@ -2664,7 +2713,7 @@
         <v>50000</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>241</v>
@@ -2712,24 +2761,180 @@
         <v>50000</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>267</v>
+        <v>374</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>260</v>
+        <v>385</v>
       </c>
       <c r="F44" s="27"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E45" s="12"/>
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>11</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E46" s="12"/>
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>11</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E47" s="12"/>
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>11</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E48" s="12"/>
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>11</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>11</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>11</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>12</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>12</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>12</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>12</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>12</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>12</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>383</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="E1:E48"/>
@@ -2795,10 +3000,10 @@
         <v>6</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2816,10 +3021,10 @@
         <v>28</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2837,10 +3042,10 @@
         <v>48</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2858,10 +3063,10 @@
         <v>99</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2879,10 +3084,10 @@
         <v>198</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2900,10 +3105,10 @@
         <v>298</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2921,10 +3126,10 @@
         <v>398</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2942,10 +3147,10 @@
         <v>498</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2963,10 +3168,10 @@
         <v>598</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2984,10 +3189,10 @@
         <v>698</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3021,7 +3226,7 @@
         <v>181</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>182</v>
@@ -3047,7 +3252,7 @@
         <v>21341</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>185</v>
@@ -3073,7 +3278,7 @@
         <v>21341</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>186</v>
@@ -3099,7 +3304,7 @@
         <v>21341</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>187</v>
@@ -3125,7 +3330,7 @@
         <v>21341</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>188</v>
@@ -3151,7 +3356,7 @@
         <v>21341</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>189</v>
@@ -3177,7 +3382,7 @@
         <v>21341</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>190</v>
@@ -3203,7 +3408,7 @@
         <v>21341</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>191</v>
@@ -3229,7 +3434,7 @@
         <v>21341</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>192</v>
@@ -3255,7 +3460,7 @@
         <v>21341</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>193</v>
@@ -3281,7 +3486,7 @@
         <v>21341</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>194</v>
@@ -3307,7 +3512,7 @@
         <v>21341</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>195</v>
@@ -3333,7 +3538,7 @@
         <v>21341</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>196</v>
@@ -3359,7 +3564,7 @@
         <v>1000157</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>185</v>
@@ -3368,10 +3573,10 @@
         <v>2000000</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -3385,7 +3590,7 @@
         <v>1000157</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>186</v>
@@ -3394,10 +3599,10 @@
         <v>5000000</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -3411,7 +3616,7 @@
         <v>1000157</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>187</v>
@@ -3420,10 +3625,10 @@
         <v>10000000</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -3437,7 +3642,7 @@
         <v>1000157</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>188</v>
@@ -3446,10 +3651,10 @@
         <v>20000000</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -3463,7 +3668,7 @@
         <v>1000157</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>189</v>
@@ -3472,10 +3677,10 @@
         <v>50000000</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -3489,7 +3694,7 @@
         <v>1000157</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>190</v>
@@ -3498,10 +3703,10 @@
         <v>100000000</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H19">
         <v>6</v>
@@ -3515,7 +3720,7 @@
         <v>1000157</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>191</v>
@@ -3524,10 +3729,10 @@
         <v>200000000</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H20">
         <v>7</v>
@@ -3541,7 +3746,7 @@
         <v>1000157</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>192</v>
@@ -3550,10 +3755,10 @@
         <v>500000000</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H21">
         <v>8</v>
@@ -3567,7 +3772,7 @@
         <v>1000157</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>193</v>
@@ -3576,10 +3781,10 @@
         <v>1000000000</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H22">
         <v>9</v>
@@ -3593,7 +3798,7 @@
         <v>1000157</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>194</v>
@@ -3602,10 +3807,10 @@
         <v>2000000000</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H23">
         <v>10</v>
@@ -3619,7 +3824,7 @@
         <v>1000157</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>195</v>
@@ -3628,10 +3833,10 @@
         <v>3000000000</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H24">
         <v>11</v>
@@ -3645,7 +3850,7 @@
         <v>1000157</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>196</v>
@@ -3654,10 +3859,10 @@
         <v>5000000000</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H25">
         <v>12</v>
@@ -3673,8 +3878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3691,13 +3896,13 @@
         <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>56</v>
@@ -3709,10 +3914,10 @@
         <v>54</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3723,25 +3928,25 @@
         <v>21314</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D2" s="5">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3752,25 +3957,25 @@
         <v>21016</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D3" s="5">
         <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -3781,25 +3986,25 @@
         <v>21017</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D4" s="5">
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3810,25 +4015,25 @@
         <v>1000152</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D5" s="5">
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -3839,25 +4044,25 @@
         <v>1000153</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>353</v>
-      </c>
       <c r="I6" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3868,25 +4073,25 @@
         <v>1000154</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D7" s="5">
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>353</v>
-      </c>
       <c r="I7" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3897,25 +4102,25 @@
         <v>1000155</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D8" s="5">
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>353</v>
-      </c>
       <c r="I8" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3926,25 +4131,25 @@
         <v>1000156</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D9" s="5">
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>353</v>
-      </c>
       <c r="I9" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -4688,13 +4893,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4705,13 +4910,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4722,13 +4927,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4739,13 +4944,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4756,10 +4961,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>37</v>
@@ -4773,13 +4978,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4790,13 +4995,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4807,13 +5012,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4824,13 +5029,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4844,10 +5049,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4861,10 +5066,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4878,10 +5083,10 @@
         <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4895,10 +5100,10 @@
         <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4912,10 +5117,10 @@
         <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4929,10 +5134,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E16">
         <v>1</v>

--- a/config_12.29/vip2_config.xlsx
+++ b/config_12.29/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="387">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1514,6 +1514,10 @@
   <si>
     <t>每日最多可参加排名挑战赛15次</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2029,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3203,668 +3207,743 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>21341</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="17">
+      <c r="F2" s="17">
         <v>2000000</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>21341</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="E3" s="17">
+      <c r="F3" s="17">
         <v>5000000</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>21341</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="17">
+      <c r="F4" s="17">
         <v>10000000</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="G4" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="H4" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>21341</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="E5" s="17">
+      <c r="F5" s="17">
         <v>20000000</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="H5" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>21341</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="E6" s="17">
+      <c r="F6" s="17">
         <v>50000000</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="G6" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="H6" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>21341</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="E7" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="17">
+      <c r="F7" s="17">
         <v>100000000</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="G7" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="H7" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
         <v>21341</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="E8" s="17">
+      <c r="F8" s="17">
         <v>200000000</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="G8" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="H8" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
         <v>21341</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="E9" s="17">
+      <c r="F9" s="17">
         <v>500000000</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="H9" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
         <v>21341</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="E10" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="E10" s="17">
+      <c r="F10" s="17">
         <v>1000000000</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="G10" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="H10" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
         <v>21341</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="E11" s="17">
+      <c r="F11" s="17">
         <v>2000000000</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="G11" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="H11" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
         <v>21341</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="E12" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="17">
+      <c r="F12" s="17">
         <v>3000000000</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="G12" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="H12" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
         <v>21341</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="E13" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="E13" s="17">
+      <c r="F13" s="17">
         <v>5000000000</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="G13" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="H13" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>1000157</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="E14" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="E14" s="17">
+      <c r="F14" s="17">
         <v>2000000</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="G14" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="H14" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
         <v>1000157</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="E15" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="E15" s="17">
+      <c r="F15" s="17">
         <v>5000000</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="G15" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="H15" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
         <v>1000157</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="E16" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="E16" s="17">
+      <c r="F16" s="17">
         <v>10000000</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="G16" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="H16" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
         <v>1000157</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="E17" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="E17" s="17">
+      <c r="F17" s="17">
         <v>20000000</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="G17" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="H17" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
         <v>1000157</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E18" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="E18" s="17">
+      <c r="F18" s="17">
         <v>50000000</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="G18" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="H18" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
         <v>1000157</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E19" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E19" s="17">
+      <c r="F19" s="17">
         <v>100000000</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="G19" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="H19" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
         <v>1000157</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="E20" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="E20" s="17">
+      <c r="F20" s="17">
         <v>200000000</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="G20" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="H20" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
         <v>1000157</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="E21" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="E21" s="17">
+      <c r="F21" s="17">
         <v>500000000</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="G21" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="H21" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
         <v>1000157</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="E22" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="17">
+      <c r="F22" s="17">
         <v>1000000000</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="G22" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="H22" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
         <v>1000157</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="E23" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="E23" s="17">
+      <c r="F23" s="17">
         <v>2000000000</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="G23" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="H23" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24">
         <v>1000157</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="E24" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="17">
+      <c r="F24" s="17">
         <v>3000000000</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="G24" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="H24" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
         <v>1000157</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="E25" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="E25" s="17">
+      <c r="F25" s="17">
         <v>5000000000</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="G25" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="H25" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>12</v>
       </c>
     </row>
